--- a/Modelos em Python/7_Erros_validação.xlsx
+++ b/Modelos em Python/7_Erros_validação.xlsx
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.577675947880704</v>
+        <v>4.536173119805767</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3227575201869811</v>
+        <v>0.3203539449589251</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1224317576161465</v>
+        <v>0.122079026791333</v>
       </c>
     </row>
     <row r="8">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.60131066906532</v>
+        <v>4.605530806929554</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3198220125574248</v>
+        <v>0.3200989967796836</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1186807823964776</v>
+        <v>0.1187796765109132</v>
       </c>
     </row>
     <row r="10">

--- a/Modelos em Python/7_Erros_validação.xlsx
+++ b/Modelos em Python/7_Erros_validação.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>Decision Tree Regressor</t>
         </is>
       </c>
       <c r="B10" t="n">

--- a/Modelos em Python/7_Erros_validação.xlsx
+++ b/Modelos em Python/7_Erros_validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.523383848692135</v>
+        <v>10.89602883279872</v>
       </c>
       <c r="C2" t="n">
-        <v>0.245140099742244</v>
+        <v>0.6795936097764074</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08920774794637443</v>
+        <v>0.2483244566268469</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.584654885061045</v>
+        <v>11.11724327152731</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3189244793802716</v>
+        <v>0.693529959734097</v>
       </c>
       <c r="D3" t="n">
-        <v>0.118510233742331</v>
+        <v>0.250112394603702</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.859097526785147</v>
+        <v>10.58006126157474</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2693564062388439</v>
+        <v>0.6619352652020011</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09891205356010804</v>
+        <v>0.2413983322230581</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.940796165802958</v>
+        <v>10.87462408287397</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2742876421333753</v>
+        <v>0.678228008992196</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09716354577194732</v>
+        <v>0.2481551397679148</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.186414752510643</v>
+        <v>10.85884983631992</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2931235527771019</v>
+        <v>0.6767812066476802</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1079600696974483</v>
+        <v>0.2474108410165916</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.536173119805767</v>
+        <v>11.00886493109852</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3203539449589251</v>
+        <v>0.6871383625557796</v>
       </c>
       <c r="D7" t="n">
-        <v>0.122079026791333</v>
+        <v>0.2491329679717841</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.573704941326089</v>
+        <v>10.87556104155551</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3181808545412423</v>
+        <v>0.677179380956525</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1182301664684505</v>
+        <v>0.2448366852946614</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.605530806929554</v>
+        <v>11.06755403250078</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3200989967796836</v>
+        <v>0.6894402896343619</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1187796765109132</v>
+        <v>0.2493764925790807</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.328890552922555</v>
+        <v>6.724025118477194</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3799322129172439</v>
+        <v>0.5652495349517803</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09716680042837743</v>
+        <v>0.1630816379914531</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.354559987145667</v>
+        <v>14.03514237985797</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6334732431707721</v>
+        <v>1.018974016291047</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2001493008941517</v>
+        <v>0.3633541298022478</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.557296409142641</v>
+        <v>14.52854845795988</v>
       </c>
       <c r="C12" t="n">
-        <v>0.650738934156422</v>
+        <v>1.064535989014897</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2044879950804443</v>
+        <v>0.3744961284912203</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.528616728493468</v>
+        <v>10.43030442791959</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6500265256130546</v>
+        <v>0.7181181458486762</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1918772577960227</v>
+        <v>0.2329317117362308</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/7_Erros_validação.xlsx
+++ b/Modelos em Python/7_Erros_validação.xlsx
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.724025118477194</v>
+        <v>6.798075376860778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5652495349517803</v>
+        <v>0.571470464380908</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1630816379914531</v>
+        <v>0.1617823658838295</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.03514237985797</v>
+        <v>13.82422481462133</v>
       </c>
       <c r="C11" t="n">
-        <v>1.018974016291047</v>
+        <v>0.9997842003396261</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3633541298022478</v>
+        <v>0.35869921904904</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.52854845795988</v>
+        <v>14.20683102410112</v>
       </c>
       <c r="C12" t="n">
-        <v>1.064535989014897</v>
+        <v>1.034645864247207</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3744961284912203</v>
+        <v>0.3667098359071695</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.43030442791959</v>
+        <v>10.48878813529452</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7181181458486762</v>
+        <v>0.7232410575208083</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2329317117362308</v>
+        <v>0.2339776943526035</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/7_Erros_validação.xlsx
+++ b/Modelos em Python/7_Erros_validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.86373654725018</v>
+        <v>13.86787902517334</v>
       </c>
       <c r="C11" t="n">
-        <v>1.003366954251754</v>
+        <v>1.003741906798429</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3595627241707222</v>
+        <v>0.3596540334404807</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/7_Erros_validação.xlsx
+++ b/Modelos em Python/7_Erros_validação.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree Regressor</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Random Forest Regressor</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.86787902517334</v>
+        <v>13.84616018410978</v>
       </c>
       <c r="C11" t="n">
-        <v>1.003741906798429</v>
+        <v>1.00176847221444</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3596540334404807</v>
+        <v>0.3591702831304234</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/7_Erros_validação.xlsx
+++ b/Modelos em Python/7_Erros_validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.84616018410978</v>
+        <v>13.83180381879994</v>
       </c>
       <c r="C11" t="n">
-        <v>1.00176847221444</v>
+        <v>1.000473280966343</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3591702831304234</v>
+        <v>0.3588848843080469</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/7_Erros_validação.xlsx
+++ b/Modelos em Python/7_Erros_validação.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DTR</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,23 +597,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.83180381879994</v>
+        <v>13.84280653550323</v>
       </c>
       <c r="C11" t="n">
-        <v>1.000473280966343</v>
+        <v>1.001453418344598</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3588848843080469</v>
+        <v>0.3590454953994695</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -629,7 +629,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/7_Erros_validação.xlsx
+++ b/Modelos em Python/7_Erros_validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.89602883279872</v>
+        <v>10.9154646676373</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6795936097764074</v>
+        <v>0.6810520920643975</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2483244566268469</v>
+        <v>0.2486884722687401</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.11103422176305</v>
+        <v>11.11300510952923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6928089707530558</v>
+        <v>0.6929288571133992</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2503474988112365</v>
+        <v>0.2503872236179269</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.58006126157474</v>
+        <v>8.895382468223486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6619352652020011</v>
+        <v>0.568172898152462</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2413983322230581</v>
+        <v>0.2003337207834938</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.87462408287397</v>
+        <v>10.90980627951425</v>
       </c>
       <c r="C5" t="n">
-        <v>0.678228008992196</v>
+        <v>0.6806772841100465</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2481551397679148</v>
+        <v>0.2486190579799753</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.85884983631992</v>
+        <v>10.9017006827585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6767812066476802</v>
+        <v>0.679634214202971</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2474108410165916</v>
+        <v>0.248089308118643</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.00886493109852</v>
+        <v>10.90549904386773</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6871383625557796</v>
+        <v>0.6807682596525672</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2491329679717841</v>
+        <v>0.2476872488637774</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.09471239063626</v>
+        <v>11.09465147304156</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6913762721450094</v>
+        <v>0.6915464471589</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2503329470431898</v>
+        <v>0.2502408438446035</v>
       </c>
     </row>
     <row r="9">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.1216470573872</v>
+        <v>11.07759192812911</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6934333601997513</v>
+        <v>0.6903805037136991</v>
       </c>
       <c r="D9" t="n">
-        <v>0.250490240675403</v>
+        <v>0.2499511167577538</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,39 +597,39 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.84280653550323</v>
+        <v>13.91205028387693</v>
       </c>
       <c r="C11" t="n">
-        <v>1.001453418344598</v>
+        <v>1.00775690961719</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3590454953994695</v>
+        <v>0.3606225735216532</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.21482025396246</v>
+        <v>14.3511783395677</v>
       </c>
       <c r="C12" t="n">
-        <v>1.035507980969503</v>
+        <v>1.048250756942152</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3675726948468761</v>
+        <v>0.3712196934393567</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/7_Erros_validação.xlsx
+++ b/Modelos em Python/7_Erros_validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.9154646676373</v>
+        <v>21.79712943558865</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6810520920643975</v>
+        <v>0.6798154499280835</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2486884722687401</v>
+        <v>0.2483723841194649</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.11300510952923</v>
+        <v>22.22622303569488</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6929288571133992</v>
+        <v>0.6929394029424654</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2503872236179269</v>
+        <v>0.2503913882365074</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.895382468223486</v>
+        <v>19.96075598955214</v>
       </c>
       <c r="C4" t="n">
-        <v>0.568172898152462</v>
+        <v>0.6293809553898314</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2003337207834938</v>
+        <v>0.2261132124800941</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.90980627951425</v>
+        <v>21.81692498759232</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6806772841100465</v>
+        <v>0.6805766578952623</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2486190579799753</v>
+        <v>0.248579951781932</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.9017006827585</v>
+        <v>21.75321629106406</v>
       </c>
       <c r="C6" t="n">
-        <v>0.679634214202971</v>
+        <v>0.6779968618137368</v>
       </c>
       <c r="D6" t="n">
-        <v>0.248089308118643</v>
+        <v>0.2477214726782499</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.90549904386773</v>
+        <v>22.08780525812716</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6807682596525672</v>
+        <v>0.686802437530651</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2476872488637774</v>
+        <v>0.2512698707090474</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.09465147304156</v>
+        <v>22.19085476709124</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6915464471589</v>
+        <v>0.6916620182372756</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2502408438446035</v>
+        <v>0.2501893169000182</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.07759192812911</v>
+        <v>22.17336222786427</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6903805037136991</v>
+        <v>0.6910023433171617</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2499511167577538</v>
+        <v>0.2500186861061944</v>
       </c>
     </row>
     <row r="10">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.798075376860778</v>
+        <v>13.59615075372154</v>
       </c>
       <c r="C10" t="n">
         <v>0.571470464380908</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.91205028387693</v>
+        <v>27.77772121638382</v>
       </c>
       <c r="C11" t="n">
-        <v>1.00775690961719</v>
+        <v>1.005647840962857</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3606225735216532</v>
+        <v>0.3601041564521143</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.3511783395677</v>
+        <v>28.7023566791354</v>
       </c>
       <c r="C12" t="n">
         <v>1.048250756942152</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.45115379248832</v>
+        <v>20.90230758497665</v>
       </c>
       <c r="C13" t="n">
         <v>0.721298801716965</v>

--- a/Modelos em Python/7_Erros_validação.xlsx
+++ b/Modelos em Python/7_Erros_validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/7_Erros_validação.xlsx
+++ b/Modelos em Python/7_Erros_validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
     </row>
     <row r="12">
